--- a/Patient_Data.xlsx
+++ b/Patient_Data.xlsx
@@ -112,10 +112,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="31:31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -125,231 +125,276 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.861505995750931</v>
+        <v>0.731451117032177</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>4.31893687707633</v>
+        <v>211.0819327731</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1.97738582407711</v>
+        <v>2.80462184873949</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4.31893687707633</v>
+        <v>211.0819327731</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3.95191992357378</v>
+        <v>4.75584136093461</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>7.63787375415267</v>
+        <v>211.0819327731</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>6.01143541556756</v>
+        <v>5.97535355605656</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>211.0819327731</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>7.04147833402249</v>
+        <v>6.95096331215413</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>211.0819327731</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>8.75878687636348</v>
+        <v>7.76798524287763</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>7.63787375415267</v>
+        <v>30252.7983193277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>10.1321774343033</v>
+        <v>8.75512400081983</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7.63787375415267</v>
+        <v>20799.1113445378</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>11.1619351803002</v>
+        <v>9.81989137118261</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4.31893687707633</v>
+        <v>47689.5987394958</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>11.9635549598619</v>
+        <v>10.7890961262553</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>342.85049833887</v>
+        <v>52941.6470588235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>13.0800051331042</v>
+        <v>11.7554826808772</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>349.488372093023</v>
+        <v>60504.5966386554</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>14.2346684157244</v>
+        <v>12.8456138552982</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>800.863787375415</v>
+        <v>66596.9726890756</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>15.17858925185</v>
+        <v>13.8099508095921</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>797.544850498339</v>
+        <v>75840.5777310924</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>16.1125290519441</v>
+        <v>14.5324349251895</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>678.063122923588</v>
+        <v>83403.5273109243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>17.2378195713858</v>
+        <v>15.993031358885</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>787.588039867109</v>
+        <v>85714.4285714285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>18.1700483367316</v>
+        <v>16.8472022955523</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>648.1926910299</v>
+        <v>85294.2647058823</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>20.1400196768996</v>
+        <v>18.0695326911252</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>598.408637873754</v>
+        <v>82983.3634453781</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>21.1760512169734</v>
+        <v>19.6584853453576</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>668.106312292358</v>
+        <v>80042.2163865546</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>22.3746310581324</v>
+        <v>21.0058413609346</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>631.598006644518</v>
+        <v>75210.3319327731</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>23.2347111915931</v>
+        <v>21.8633428981348</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>651.511627906976</v>
+        <v>72059.1029411764</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>24.1769209929705</v>
+        <v>23.0820864931338</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>628.279069767441</v>
+        <v>72689.3487394958</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>25.1222676913863</v>
+        <v>23.941637630662</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>641.554817275747</v>
+        <v>67857.4642857142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>26.1434702636419</v>
+        <v>24.9218589874974</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>538.667774086378</v>
+        <v>64075.9894957983</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>27.0876762722256</v>
+        <v>27.2458495593359</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>538.667774086378</v>
+        <v>58403.7773109243</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>28.9598334592845</v>
+        <v>28.1015576962492</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>349.488372093023</v>
+        <v>56723.1218487395</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>30.0757132876106</v>
+        <v>28.8376204140192</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>349.488372093023</v>
+        <v>53151.7289915966</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>31.1625055252163</v>
+        <v>30.0591822094691</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10.956810631229</v>
+        <v>51471.0735294117</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>32.1922632712132</v>
+        <v>31.1585365853658</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>7.63787375415267</v>
+        <v>50000.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>33.1361841073389</v>
+        <v>32.2558413609346</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4.31893687707633</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>50210.5819327731</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>34.4599303135888</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>42857.7142857142</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>35.0673806107809</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>44748.4516806722</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>36.2943226070916</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>38656.0756302521</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>37.1426009428161</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>43067.7962184874</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>37.8773826603812</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>40546.81302521</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>39.0974072555851</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>40126.6491596638</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
